--- a/transportations/transport_record.xlsx
+++ b/transportations/transport_record.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\winston\Travel-Tales-Tickets\transportations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winston/Documents/Travel-Tales-Tickets/transportations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A626D38-E53E-4746-8CB4-96E509D4DEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9661ABE1-5FA7-B741-8998-95F21FA4C0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{5120CA57-A492-404B-8540-E8A501059C9D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20120" xr2:uid="{5120CA57-A492-404B-8540-E8A501059C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="492">
   <si>
     <t>G168</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5572,6 +5572,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>宁波-北京南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>23</t>
     </r>
@@ -5583,6 +5612,522 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
+      <t>国庆返校</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:56-13:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千岛湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京南-徐州东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州马拉松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:31-13:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐州东-北京南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐马返程，G14改签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京南-杭州东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:20-19:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秋实习</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:35-04:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州马拉松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调特快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州南-广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车005号上铺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:41-20:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州东-北京南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春注册</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:04-23:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3C</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春实习</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速动车-复兴号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速动车-和谐号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速铁路-复兴号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高速动车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复兴号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动车组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和谐号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07:46-09:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HU7161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州白云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州萧山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波音737-800(WL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云T1-萧山T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南航空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广马返程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>秋返校，改签</t>
     </r>
     <r>
@@ -5598,8 +6143,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>车</t>
@@ -5617,84 +6162,234 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，换</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波-北京南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国庆返校</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:56-13:17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千岛湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京南-徐州东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上，换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:36-21:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KN2332</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京大兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>737-800(WL)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>萧山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大兴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国联合航空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春答辩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:56-15:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京南-杭州西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改签费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>04F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:38-19:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千岛湖站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速动车</t>
   </si>
   <si>
     <r>
@@ -5704,143 +6399,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐州马拉松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:31-13:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐州东-北京南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐马返程，G14改签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京南-杭州东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:20-19:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="SimSun"/>
         <family val="1"/>
         <charset val="134"/>
       </rPr>
@@ -5853,224 +6412,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>11B</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秋实习</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:35-04:51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州马拉松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调特快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州南-广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车005号上铺</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:41-20:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州东-北京南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>春注册</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:04-23:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3C</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>春实习</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速动车-复兴号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速动车-和谐号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速铁路-复兴号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+      <t>14B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>高速动车</t>
@@ -6082,102 +6434,48 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve">	</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台州西站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复兴号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动车组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和谐号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07:46-09:28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HU7161</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州白云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州萧山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波音737-800(WL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白云T1-萧山T3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B216</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海南航空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广马返程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞机</t>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杭州东</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩返程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6189,7 +6487,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6258,13 +6556,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -6275,6 +6566,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="134"/>
     </font>
@@ -6304,7 +6609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6321,9 +6626,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
@@ -6362,16 +6664,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6689,3077 +6997,3091 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD42DA-A0D8-4BC5-9678-C1CC35497B79}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="4" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="2" customWidth="1"/>
     <col min="16" max="16" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" s="9" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45341</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>465</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E2" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>449</v>
+      <c r="F2" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>488</v>
       </c>
       <c r="H2" s="2">
-        <v>1279</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>425</v>
+        <v>1586</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>490</v>
       </c>
       <c r="J2" s="2">
         <v>1279</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="N2" s="4">
+        <v>623</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1416</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1277</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="N3" s="4">
+        <v>93.5</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1200</v>
+      </c>
+      <c r="K4" s="15">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N4" s="4">
+        <v>460</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1279</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1279</v>
+      </c>
+      <c r="K5" s="15">
         <v>0.17916666666666667</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="L5" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="N5" s="4">
+        <v>506</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="N2" s="4">
-        <v>506</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="Q2" s="20"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="H6" s="2">
+        <v>1279</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>441</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1279</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1279</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="N3" s="4">
-        <v>506</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q3" s="20"/>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45271</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1099</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1099</v>
-      </c>
-      <c r="K4" s="16">
-        <v>7.0833333333333331E-2</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="N4" s="4">
-        <v>536</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45268</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1598</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1410</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0.64027777777777783</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="N5" s="4">
-        <v>296.5</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45252</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1506</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>425</v>
       </c>
       <c r="J6" s="2">
         <v>1279</v>
       </c>
-      <c r="K6" s="16">
-        <v>0.24722222222222223</v>
+      <c r="K6" s="15">
+        <v>0.23958333333333334</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>427</v>
+        <v>18</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="N6" s="4">
         <v>506</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1099</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1099</v>
+      </c>
+      <c r="K7" s="15">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="N7" s="4">
+        <v>536</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1598</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1410</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="N8" s="4">
+        <v>296.5</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1506</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1279</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.24722222222222223</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="N9" s="4">
+        <v>506</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q6" s="20"/>
+      <c r="P9" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q9" s="19"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
         <v>45236</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B10" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E10" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1318</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="J10" s="2">
+        <v>692</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="N10" s="4">
+        <v>322</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>45234</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1416</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="J11" s="2">
+        <v>692</v>
+      </c>
+      <c r="K11" s="15">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="N11" s="4">
+        <v>350</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>45207</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1434</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1434</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="N12" s="4">
+        <v>559</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1463</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1463</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0.78402777777777777</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="N13" s="4">
+        <v>226.5</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1463</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1463</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.66805555555555562</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="N14" s="4">
+        <v>476.5</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1318</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J15" s="2">
+        <v>295</v>
+      </c>
+      <c r="K15" s="15">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="N15" s="4">
+        <v>153</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1318</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="J7" s="2">
-        <v>692</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0.12569444444444444</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="N7" s="4">
-        <v>322</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45234</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1416</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="J8" s="2">
-        <v>692</v>
-      </c>
-      <c r="K8" s="16">
-        <v>9.7916666666666666E-2</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="N8" s="4">
-        <v>350</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45207</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="G16" s="17" t="s">
         <v>451</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1434</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1434</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0.27638888888888885</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="N9" s="4">
-        <v>559</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45199</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1463</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1463</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0.78402777777777777</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="N10" s="4">
-        <v>226.5</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>45179</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1463</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1463</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0.66805555555555562</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="N11" s="4">
-        <v>476.5</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45152</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1318</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J12" s="2">
-        <v>295</v>
-      </c>
-      <c r="K12" s="16">
-        <v>4.7916666666666663E-2</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="N12" s="4">
-        <v>153</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>45152</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1318</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1023</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0.18333333333333335</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="N13" s="4">
-        <v>400</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>45143</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1434</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1434</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0.22430555555555556</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="N14" s="4">
-        <v>559</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45130</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1549</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J15" s="2">
-        <v>314</v>
-      </c>
-      <c r="K15" s="16">
-        <v>8.819444444444445E-2</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="N15" s="4">
-        <v>116</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>45088</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="2">
         <v>1318</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>212</v>
+        <v>375</v>
       </c>
       <c r="J16" s="2">
-        <v>1318</v>
-      </c>
-      <c r="K16" s="16">
-        <v>0.19305555555555554</v>
+        <v>1023</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.18333333333333335</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="N16" s="4">
-        <v>662</v>
+        <v>400</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>45045</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>465</v>
+        <v>45143</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>464</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>308</v>
+        <v>357</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1434</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="K17" s="16">
-        <v>7.2916666666666671E-2</v>
+        <v>378</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1434</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0.22430555555555556</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="N17" s="4">
-        <v>156</v>
+        <v>559</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>45044</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>465</v>
+        <v>45130</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>464</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>308</v>
+        <v>352</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1549</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K18" s="16">
-        <v>9.2361111111111116E-2</v>
+        <v>353</v>
+      </c>
+      <c r="J18" s="2">
+        <v>314</v>
+      </c>
+      <c r="K18" s="15">
+        <v>8.819444444444445E-2</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="N18" s="4">
-        <v>170</v>
+        <v>116</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>400</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>45004</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>465</v>
+        <v>45088</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>464</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H19" s="2">
+        <v>1318</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1318</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="N19" s="4">
+        <v>662</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
+        <v>45045</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K20" s="15">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="N20" s="4">
+        <v>156</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K21" s="15">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="N21" s="4">
+        <v>170</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
+        <v>45004</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="2">
         <v>804</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J22" s="2">
         <v>804</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K22" s="15">
         <v>0.14097222222222222</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N22" s="4">
         <v>336</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
         <v>45003</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B23" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="2">
-        <v>819</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J20" s="2">
-        <v>819</v>
-      </c>
-      <c r="K20" s="16">
-        <v>0.15902777777777777</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="N20" s="4">
-        <v>349</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44964</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1434</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1434</v>
-      </c>
-      <c r="K21" s="16">
-        <v>0.22430555555555556</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="N21" s="4">
-        <v>541</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>44944</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1338</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1338</v>
-      </c>
-      <c r="K22" s="16">
-        <v>8.9583333333333334E-2</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="N22" s="4">
-        <v>362</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>44796</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>121</v>
       </c>
       <c r="H23" s="2">
+        <v>819</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J23" s="2">
+        <v>819</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N23" s="4">
+        <v>349</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="2">
         <v>1434</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J24" s="2">
         <v>1434</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K24" s="15">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="N24" s="4">
+        <v>541</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A25" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1338</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1338</v>
+      </c>
+      <c r="K25" s="15">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="N25" s="4">
+        <v>362</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1434</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1434</v>
+      </c>
+      <c r="K26" s="15">
         <v>0.27638888888888885</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N26" s="4">
         <v>541</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="27" spans="1:16">
+      <c r="A27" s="1">
         <v>44771</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B27" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1857</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J27" s="2">
+        <v>316</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="N27" s="4">
+        <v>130.5</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1">
+        <v>44770</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1083</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J28" s="2">
+        <v>763</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N28" s="4">
+        <v>338</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1">
+        <v>44769</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2092</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1169</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="N29" s="4">
+        <v>498.5</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K30" s="15">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="4">
+        <v>212.5</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1">
+        <v>44765</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K31" s="15">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="N31" s="4">
+        <v>139</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1">
+        <v>44763</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="2">
+        <v>299</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" s="2">
+        <v>299</v>
+      </c>
+      <c r="K32" s="15">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="N32" s="4">
+        <v>164</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1">
+        <v>44751</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1857</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="J24" s="2">
-        <v>316</v>
-      </c>
-      <c r="K24" s="16">
-        <v>0.10069444444444443</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="N24" s="4">
-        <v>130.5</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>323</v>
+      <c r="C33" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1803</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1803</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0.1013888888888889</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N33" s="4">
+        <v>920</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>44770</v>
-      </c>
-      <c r="B25" s="22" t="s">
+    <row r="34" spans="1:16">
+      <c r="A34" s="1">
+        <v>44744</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1434</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1434</v>
+      </c>
+      <c r="K34" s="15">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N34" s="4">
+        <v>541</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1">
+        <v>44598</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1083</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J25" s="2">
-        <v>763</v>
-      </c>
-      <c r="K25" s="16">
-        <v>0.1423611111111111</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="N25" s="4">
-        <v>338</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>44769</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2092</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1169</v>
-      </c>
-      <c r="K26" s="16">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="N26" s="4">
-        <v>498.5</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>44767</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="K27" s="16">
-        <v>8.6111111111111124E-2</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N27" s="4">
-        <v>212.5</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>44765</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K28" s="16">
-        <v>9.2361111111111116E-2</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="N28" s="4">
-        <v>139</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>44763</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="2">
-        <v>299</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J29" s="2">
-        <v>299</v>
-      </c>
-      <c r="K29" s="16">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="N29" s="4">
-        <v>164</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1803</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1803</v>
-      </c>
-      <c r="K30" s="16">
-        <v>0.1013888888888889</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="N30" s="4">
-        <v>920</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>44744</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1434</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1434</v>
-      </c>
-      <c r="K31" s="16">
-        <v>0.22083333333333333</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="N31" s="4">
-        <v>541</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>44598</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1178</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1178</v>
-      </c>
-      <c r="K32" s="16">
-        <v>7.7083333333333337E-2</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N32" s="4">
-        <v>380</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>44590</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1338</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1338</v>
-      </c>
-      <c r="K33" s="16">
-        <v>8.1944444444444445E-2</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" s="4">
-        <v>470</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>44389</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="2">
-        <v>2842</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J34" s="2">
-        <v>2842</v>
-      </c>
-      <c r="K34" s="16">
-        <v>0.13472222222222222</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N34" s="4">
-        <v>860</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>44387</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>218</v>
       </c>
       <c r="H35" s="2">
-        <v>1311</v>
+        <v>1178</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="J35" s="2">
-        <v>1311</v>
-      </c>
-      <c r="K35" s="16">
-        <v>7.4305555555555555E-2</v>
+        <v>1178</v>
+      </c>
+      <c r="K35" s="15">
+        <v>7.7083333333333337E-2</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N35" s="4">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <v>44382</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>81</v>
+        <v>44590</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>218</v>
       </c>
       <c r="H36" s="2">
-        <v>3752</v>
+        <v>1338</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="J36" s="2">
-        <v>3752</v>
-      </c>
-      <c r="K36" s="16">
-        <v>0.28402777777777777</v>
+        <v>1338</v>
+      </c>
+      <c r="K36" s="15">
+        <v>8.1944444444444445E-2</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="N36" s="4">
-        <v>1740</v>
+        <v>470</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>165</v>
       </c>
       <c r="P36" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2842</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2842</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="4">
+        <v>860</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
+        <v>44387</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1311</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1311</v>
+      </c>
+      <c r="K38" s="15">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" s="4">
+        <v>420</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3752</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J39" s="2">
+        <v>3752</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1740</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P39" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
         <v>44376</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B40" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1434</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1434</v>
+      </c>
+      <c r="K40" s="15">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N40" s="4">
+        <v>541</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1318</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1318</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N41" s="4">
+        <v>526</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1434</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1434</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1338</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1338</v>
+      </c>
+      <c r="K43" s="15">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N43" s="4">
+        <v>370</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="H44" s="2">
         <v>1434</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J44" s="2">
         <v>1434</v>
       </c>
-      <c r="K37" s="16">
-        <v>0.27638888888888885</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="N37" s="4">
-        <v>541</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>216</v>
+      <c r="K44" s="15">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N44" s="4">
+        <v>446.5</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>44364</v>
-      </c>
-      <c r="B38" s="22" t="s">
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1318</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1318</v>
-      </c>
-      <c r="K38" s="16">
-        <v>0.24861111111111112</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="N38" s="4">
-        <v>526</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>214</v>
+      <c r="C45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="N45" s="4">
+        <v>560</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>44261</v>
-      </c>
-      <c r="B39" s="22" t="s">
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1434</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1434</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>211</v>
+      <c r="C46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1334</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1334</v>
+      </c>
+      <c r="K46" s="15">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1020</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>44231</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1338</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1338</v>
-      </c>
-      <c r="K40" s="16">
-        <v>8.4722222222222213E-2</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N40" s="4">
-        <v>370</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>44087</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1434</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1434</v>
-      </c>
-      <c r="K41" s="16">
-        <v>0.27916666666666667</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="N41" s="4">
-        <v>446.5</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>44080</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K42" s="16">
-        <v>0.12152777777777778</v>
-      </c>
-      <c r="N42" s="4">
-        <v>560</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>44077</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1334</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1334</v>
-      </c>
-      <c r="K43" s="16">
-        <v>8.0555555555555561E-2</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N43" s="4">
-        <v>1020</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
         <v>44075</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B47" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H47" s="2">
         <v>248</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J47" s="2">
         <v>248</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K47" s="15">
         <v>0.12013888888888889</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="N44" s="4">
-        <v>40.5</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>44066</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H45" s="2">
-        <v>4373</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J45" s="2">
-        <v>4373</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="N45" s="4">
-        <v>793.5</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>44066</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H46" s="2">
-        <v>490</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J46" s="2">
-        <v>314</v>
-      </c>
-      <c r="K46" s="16">
-        <v>7.9166666666666663E-2</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="N46" s="4">
-        <v>144</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>44038</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H47" s="2">
-        <v>479</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J47" s="2">
-        <v>202</v>
-      </c>
-      <c r="K47" s="16">
-        <v>5.1388888888888894E-2</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M47" s="6" t="s">
-        <v>177</v>
+      <c r="M47" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="N47" s="4">
-        <v>92.5</v>
+        <v>40.5</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48" s="1">
-        <v>44037</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>36</v>
+        <v>44066</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4373</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J48" s="2">
+        <v>4373</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N48" s="4">
+        <v>793.5</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H48" s="2">
-        <v>466</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J48" s="2">
-        <v>202</v>
-      </c>
-      <c r="K48" s="16">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="N48" s="4">
-        <v>92.5</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>43845</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H49" s="2">
+        <v>490</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="2">
+        <v>314</v>
+      </c>
+      <c r="K49" s="15">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="N49" s="4">
+        <v>144</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="2">
+        <v>479</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J50" s="2">
+        <v>202</v>
+      </c>
+      <c r="K50" s="15">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N50" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" s="2">
+        <v>466</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J51" s="2">
+        <v>202</v>
+      </c>
+      <c r="K51" s="15">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N51" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1">
+        <v>43845</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" s="2">
         <v>1709</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J52" s="2">
         <v>1434</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K52" s="15">
         <v>0.28819444444444448</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L52" s="3">
         <v>8</v>
       </c>
-      <c r="M49" s="6" t="s">
+      <c r="M52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N52" s="4">
         <v>446.5</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="P52" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="53" spans="1:16">
+      <c r="A53" s="1">
         <v>43744</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B53" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H53" s="2">
+        <v>120</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J53" s="2">
+        <v>120</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N53" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1">
+        <v>43741</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="C54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1200</v>
+      </c>
+      <c r="K54" s="15">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N54" s="4">
+        <v>410</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2510</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" s="2">
+        <v>167</v>
+      </c>
+      <c r="K55" s="15">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N55" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1">
+        <v>43735</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1463</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1463</v>
+      </c>
+      <c r="K56" s="15">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N56" s="4">
+        <v>440</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1">
+        <v>43690</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H50" s="2">
-        <v>120</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J50" s="2">
-        <v>120</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="N50" s="4">
-        <v>54.5</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>169</v>
+      <c r="G57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" s="2">
+        <v>774</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57" s="2">
+        <v>774</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N57" s="4">
+        <v>261</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>43741</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H51" s="2">
-        <v>1200</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J51" s="2">
-        <v>1200</v>
-      </c>
-      <c r="K51" s="16">
-        <v>7.5694444444444439E-2</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N51" s="4">
-        <v>410</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>43739</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H52" s="2">
-        <v>2510</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J52" s="2">
-        <v>167</v>
-      </c>
-      <c r="K52" s="16">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="N52" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>43735</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H53" s="2">
-        <v>1463</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J53" s="2">
-        <v>1463</v>
-      </c>
-      <c r="K53" s="16">
-        <v>0.50277777777777777</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N53" s="4">
-        <v>440</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>43690</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H54" s="2">
-        <v>774</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J54" s="2">
-        <v>774</v>
-      </c>
-      <c r="K54" s="16">
-        <v>0.27499999999999997</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="N54" s="4">
-        <v>261</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="58" spans="1:16">
+      <c r="A58" s="1">
         <v>43668</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B58" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D58" s="3">
         <v>4341</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H58" s="2">
         <v>131</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J58" s="2">
         <v>90</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K58" s="15">
         <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="N55" s="4">
-        <v>6</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>43668</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H56" s="2">
-        <v>111</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J56" s="2">
-        <v>111</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="N56" s="4">
-        <v>31.5</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>43667</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H57" s="2">
-        <v>420</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J57" s="2">
-        <v>333</v>
-      </c>
-      <c r="K57" s="16">
-        <v>0.10972222222222222</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="N57" s="4">
-        <v>98</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>43658</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H58" s="2">
-        <v>2086</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J58" s="2">
-        <v>2086</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M58" s="6" t="s">
+      <c r="M58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N58" s="4">
+        <v>6</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1">
+        <v>43668</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="2">
+        <v>111</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J59" s="2">
+        <v>111</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N59" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1">
+        <v>43667</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" s="2">
+        <v>420</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60" s="2">
+        <v>333</v>
+      </c>
+      <c r="K60" s="15">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N60" s="4">
+        <v>98</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1">
+        <v>43658</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2086</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J61" s="2">
+        <v>2086</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N61" s="4">
         <v>421</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="P61" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="62" spans="1:16">
+      <c r="A62" s="1">
         <v>43646</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="B62" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H59" s="2">
-        <v>1279</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J59" s="2">
-        <v>1279</v>
-      </c>
-      <c r="K59" s="16">
-        <v>0.19375000000000001</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="N59" s="4">
-        <v>404</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>43646</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H60" s="2">
-        <v>610</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J60" s="2">
-        <v>155</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N60" s="4">
-        <v>53.5</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>43638</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H61" s="2">
-        <v>1709</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1434</v>
-      </c>
-      <c r="K61" s="16">
-        <v>0.28819444444444448</v>
-      </c>
-      <c r="L61" s="3">
-        <v>8</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="N61" s="4">
-        <v>446.5</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>43509</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1279</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1279</v>
+      </c>
+      <c r="K62" s="15">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N62" s="4">
+        <v>404</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" s="2">
+        <v>610</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J63" s="2">
+        <v>155</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N63" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1">
+        <v>43638</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H64" s="2">
+        <v>1709</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" s="2">
         <v>1434</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J62" s="2">
-        <v>1434</v>
-      </c>
-      <c r="K62" s="16">
-        <v>0.28541666666666665</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N62" s="4">
+      <c r="K64" s="15">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="L64" s="3">
+        <v>8</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N64" s="4">
         <v>446.5</v>
       </c>
-      <c r="P62" s="2" t="s">
-        <v>111</v>
+      <c r="P64" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>43489</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H63" s="2">
-        <v>1709</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J63" s="2">
-        <v>1434</v>
-      </c>
-      <c r="K63" s="16">
-        <v>0.28819444444444448</v>
-      </c>
-      <c r="L63" s="3">
-        <v>8</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="N63" s="4">
-        <v>446.5</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>43375</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H64" s="2">
-        <v>127</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J64" s="2">
-        <v>127</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="N64" s="4">
-        <v>54.5</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="A65" s="1">
-        <v>43341</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>5</v>
+        <v>43509</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>93</v>
@@ -9768,7 +10090,7 @@
         <v>94</v>
       </c>
       <c r="H65" s="2">
-        <v>2011</v>
+        <v>1434</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>95</v>
@@ -9776,31 +10098,31 @@
       <c r="J65" s="2">
         <v>1434</v>
       </c>
-      <c r="K65" s="16">
-        <v>0.28333333333333333</v>
+      <c r="K65" s="15">
+        <v>0.28541666666666665</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M65" s="6" t="s">
-        <v>101</v>
+      <c r="M65" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="N65" s="4">
         <v>446.5</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66" s="1">
-        <v>42974</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>465</v>
+        <v>43489</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>464</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>2</v>
@@ -9815,7 +10137,7 @@
         <v>94</v>
       </c>
       <c r="H66" s="2">
-        <v>1691</v>
+        <v>1709</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>98</v>
@@ -9823,102 +10145,236 @@
       <c r="J66" s="2">
         <v>1434</v>
       </c>
-      <c r="K66" s="16">
-        <v>0.28472222222222221</v>
+      <c r="K66" s="15">
+        <v>0.28819444444444448</v>
       </c>
       <c r="L66" s="3">
         <v>8</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="N66" s="4">
-        <v>595.5</v>
-      </c>
-      <c r="P66" s="18" t="s">
-        <v>395</v>
+        <v>446.5</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16">
       <c r="A67" s="1">
-        <v>42967</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>465</v>
+        <v>43375</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>464</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>93</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="2">
+        <v>127</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J67" s="2">
+        <v>127</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N67" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1">
+        <v>43341</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H68" s="2">
+        <v>2011</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1434</v>
+      </c>
+      <c r="K68" s="15">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N68" s="4">
+        <v>446.5</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1">
+        <v>42974</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1691</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1434</v>
+      </c>
+      <c r="K69" s="15">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="L69" s="3">
+        <v>8</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N69" s="4">
+        <v>595.5</v>
+      </c>
+      <c r="P69" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1">
+        <v>42967</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H70" s="2">
         <v>1709</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J70" s="2">
         <v>1434</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K70" s="15">
         <v>0.3125</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N70" s="4">
         <v>595.5</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="P70" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
+    <row r="72" spans="1:16">
+      <c r="A72" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B69" s="13"/>
+      <c r="B72" s="12"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+    <row r="73" spans="1:16" ht="15">
+      <c r="A73" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="B70" s="14"/>
+      <c r="B73" s="13"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+    <row r="74" spans="1:16" ht="15">
+      <c r="A74" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="B71" s="14"/>
+      <c r="B74" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P67" xr:uid="{B1FD42DA-A0D8-4BC5-9678-C1CC35497B79}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="铁路"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:P68">
-    <sortCondition descending="1" ref="A1:A68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:P71">
+    <sortCondition descending="1" ref="A1:A71"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A71" r:id="rId1" xr:uid="{9890263D-6208-4602-9467-1B6777EDC28A}"/>
-    <hyperlink ref="A70" r:id="rId2" xr:uid="{FDF4EDCF-9CE9-4630-A83B-DE3118AFAB51}"/>
+    <hyperlink ref="A74" r:id="rId1" xr:uid="{9890263D-6208-4602-9467-1B6777EDC28A}"/>
+    <hyperlink ref="A73" r:id="rId2" xr:uid="{FDF4EDCF-9CE9-4630-A83B-DE3118AFAB51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
